--- a/10v15/12/SWRC/SHSU_TAMU.xlsx
+++ b/10v15/12/SWRC/SHSU_TAMU.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\12\SWRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8807D6A-9B46-47C6-B5B1-5BD0B118F513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3849E0-0063-4E7E-8B76-F41A5DA5C1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ROSTER" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
   <si>
     <t>A</t>
   </si>
@@ -204,12 +203,153 @@
   <si>
     <t>JESSICA HEMBREE</t>
   </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0242</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0334</t>
+  </si>
+  <si>
+    <t>0413</t>
+  </si>
+  <si>
+    <t>0440</t>
+  </si>
+  <si>
+    <t>0451</t>
+  </si>
+  <si>
+    <t>0526</t>
+  </si>
+  <si>
+    <t>0557</t>
+  </si>
+  <si>
+    <t>0626</t>
+  </si>
+  <si>
+    <t>0631</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>YB80</t>
+  </si>
+  <si>
+    <t>0721</t>
+  </si>
+  <si>
+    <t>0737</t>
+  </si>
+  <si>
+    <t>0821</t>
+  </si>
+  <si>
+    <t>0827</t>
+  </si>
+  <si>
+    <t>0955</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>TA,R45</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1738</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>Q7 B0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,15 +376,29 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -447,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,10 +621,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,10 +630,10 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -495,7 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,15 +661,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -758,27 +933,27 @@
     <col min="15" max="15" width="7.81640625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" customWidth="1"/>
+    <col min="18" max="24" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -791,38 +966,38 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20">
-        <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="26" t="str">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="24">
+        <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
+        <v>10</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="25" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="27" t="str">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="16" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
-        <v>120*</v>
-      </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
+        <v>130*</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -832,25 +1007,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -860,38 +1035,40 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="20">
-        <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")</f>
-        <v>9</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="26" t="str">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="24">
+        <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="25" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="27" t="str">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="16" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
-        <v>90</v>
-      </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -901,25 +1078,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -927,7 +1104,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -955,253 +1132,309 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="O7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="R7" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11">
         <v>83</v>
       </c>
-      <c r="C8" s="8">
+      <c r="I8" s="7">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="K8" s="11">
         <v>53</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="12">
+      <c r="N8" s="11">
         <v>23</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="11" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="11">
         <v>7</v>
       </c>
-      <c r="K8" s="12">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="R8" s="7">
         <v>80</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="12">
+      <c r="T8" s="11">
         <v>0</v>
       </c>
-      <c r="O8" s="8">
+      <c r="U8" s="7">
         <v>23</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="V8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="W8" s="11">
         <v>53</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+    <row r="9" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="R10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="30">
         <v>83</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="34">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>7</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>23</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>15</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="11" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <v>80</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>53</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
+      <c r="S11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="11">
+        <v>53</v>
+      </c>
+      <c r="U11" s="7">
+        <v>15</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="11">
+        <v>30</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+    <row r="12" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1211,109 +1444,143 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>73</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="R13" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12">
-        <v>53</v>
-      </c>
-      <c r="C14" s="8">
-        <v>15</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12">
-        <v>30</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12">
-        <v>30</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="12">
-        <v>30</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="12">
-        <v>6</v>
-      </c>
-      <c r="O14" s="8">
-        <v>30</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="12">
+      <c r="K14" s="11">
         <v>42</v>
       </c>
-      <c r="R14" s="8">
+      <c r="L14" s="7">
         <v>45</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="M14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="11">
+        <v>9</v>
+      </c>
+      <c r="O14" s="7">
+        <v>42</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>9</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="11">
+        <v>42</v>
+      </c>
+      <c r="U14" s="7">
+        <v>23</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="11">
+        <v>23</v>
+      </c>
+      <c r="X14" s="7">
+        <v>57</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1332,138 +1599,166 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="R16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="11">
+        <v>23</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="11">
         <v>9</v>
       </c>
-      <c r="B17" s="12">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8">
-        <v>42</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="12">
-        <v>9</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12">
-        <v>42</v>
-      </c>
-      <c r="I17" s="8">
-        <v>23</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="12">
-        <v>23</v>
-      </c>
-      <c r="L17" s="8">
-        <v>57</v>
-      </c>
-      <c r="M17" s="11" t="s">
+      <c r="L17" s="7">
+        <v>45</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="11">
+        <v>45</v>
+      </c>
+      <c r="O17" s="7">
+        <v>27</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="12">
-        <v>57</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>14</v>
-      </c>
-      <c r="R17" s="8">
-        <v>57</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="Q17" s="11">
+        <v>30</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="11">
+        <v>30</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="11">
+        <v>30</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+    <row r="18" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1473,239 +1768,281 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="R19" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12">
+      <c r="H20" s="11">
         <v>23</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11" t="s">
+      <c r="I20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="11">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7">
+        <v>57</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="N20" s="11">
+        <v>44</v>
+      </c>
+      <c r="O20" s="7">
+        <v>23</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>15</v>
+      </c>
+      <c r="R20" s="7">
         <v>45</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="12">
-        <v>45</v>
-      </c>
-      <c r="I20" s="8">
-        <v>27</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="S20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="11">
+        <v>15</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="12">
-        <v>30</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="12">
-        <v>30</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>30</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
+      <c r="W20" s="11">
+        <v>15</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
+    <row r="21" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="C22" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="9"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11">
+        <v>80</v>
+      </c>
+      <c r="C23" s="7">
+        <v>42</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>80</v>
+      </c>
+      <c r="F23" s="7">
+        <v>57</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="12">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="H23" s="11">
+        <v>80</v>
+      </c>
+      <c r="I23" s="7">
+        <v>42</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="12">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8">
-        <v>9</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="12">
-        <v>23</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="12">
-        <v>45</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="K23" s="11">
         <v>57</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="12">
-        <v>44</v>
-      </c>
-      <c r="O23" s="8">
-        <v>23</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>15</v>
-      </c>
-      <c r="R23" s="8">
-        <v>45</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="11">
+        <v>30</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1733,209 +2070,179 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="5"/>
       <c r="K25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" s="9"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="12">
-        <v>15</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="12">
-        <v>15</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="12">
-        <v>80</v>
-      </c>
-      <c r="I26" s="8">
-        <v>47</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="12">
-        <v>80</v>
-      </c>
-      <c r="L26" s="8">
-        <v>57</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="12">
-        <v>80</v>
-      </c>
-      <c r="O26" s="8">
-        <v>42</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>57</v>
-      </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="3"/>
       <c r="N28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="10"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" s="9"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="12">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
+    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1954,84 +2261,88 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="3"/>
       <c r="N31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="9"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
+    <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -29277,13 +29588,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29293,10 +29597,17 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -29312,8 +29623,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29322,7 +29633,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -29330,7 +29641,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -29338,21 +29649,21 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -29360,7 +29671,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -29368,7 +29679,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -29376,7 +29687,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -29384,7 +29695,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -29392,15 +29703,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
@@ -29408,7 +29719,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -29416,7 +29727,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -29427,41 +29738,41 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -29469,15 +29780,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="C21" t="s">
@@ -29485,12 +29796,12 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -29498,7 +29809,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="C24" t="s">
@@ -29506,7 +29817,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -29514,22 +29825,22 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -29537,17 +29848,17 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -29555,64 +29866,64 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -29620,17 +29931,17 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -29641,32 +29952,32 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
       <c r="C53" t="s">
@@ -29674,12 +29985,12 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
       <c r="C55" t="s">
@@ -29687,22 +29998,22 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
       <c r="C59" t="s">
@@ -29710,117 +30021,117 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>80</v>
       </c>
       <c r="C82" t="s">
@@ -29828,17 +30139,17 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -29846,85 +30157,85 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+      <c r="A94" s="12">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="A97" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+      <c r="A98" s="12">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+      <c r="A99" s="12">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
+      <c r="A101" s="12">
         <v>99</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -29936,24 +30247,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>